--- a/Seminar_1.xlsx
+++ b/Seminar_1.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\мвидео\OneDrive\Рабочий стол\ОбучениеБД\DB_Seminar_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D89DF28-48B3-4F94-BDB1-53D8200D9D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +26,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Год рождения</t>
+  </si>
+  <si>
+    <t>Класс</t>
+  </si>
+  <si>
+    <t>Место</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Иванов Иван Иванович</t>
+  </si>
+  <si>
+    <t>Петров Артём Сергеевич</t>
+  </si>
+  <si>
+    <t>Сидоров Михаил Юрьевич</t>
+  </si>
+  <si>
+    <t>Отличник</t>
+  </si>
+  <si>
+    <t>Ученики</t>
+  </si>
+  <si>
+    <t>Места</t>
+  </si>
+  <si>
+    <t>Двоечник</t>
+  </si>
+  <si>
+    <t>Троечник</t>
+  </si>
+  <si>
+    <t>Хорошист</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +89,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -45,15 +122,303 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +431,119 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Соединитель: уступ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6950A2B2-7A59-14B9-51E4-35063145A643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4295775" y="133350"/>
+          <a:ext cx="2657475" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Соединитель: уступ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4FBE01-A8B4-B7F1-A4AA-93CE465F3376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5019675" y="142875"/>
+          <a:ext cx="4371975" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 70261"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,10 +808,812 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="J1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2010</v>
+      </c>
+      <c r="D3" s="11">
+        <v>6</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="14"/>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="14"/>
+      <c r="J7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="14"/>
+      <c r="J8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="14"/>
+      <c r="J9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="14"/>
+      <c r="J10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="14"/>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="14"/>
+      <c r="J12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="14"/>
+      <c r="J13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="14"/>
+      <c r="J14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="14"/>
+      <c r="J15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="14"/>
+      <c r="J16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="14"/>
+      <c r="J17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="14"/>
+      <c r="J18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="14"/>
+      <c r="J19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="14"/>
+      <c r="J20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="14"/>
+      <c r="J21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="14"/>
+      <c r="J22" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="14"/>
+      <c r="J23" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="14"/>
+      <c r="J24" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="14"/>
+      <c r="J25" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="14"/>
+      <c r="J26" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="14"/>
+      <c r="J27" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="14"/>
+      <c r="J28" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="14"/>
+      <c r="J29" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="14"/>
+      <c r="J30" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="14"/>
+      <c r="J31" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="14"/>
+      <c r="J32" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="14"/>
+      <c r="J33" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="14"/>
+      <c r="J34" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="14"/>
+      <c r="J35" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="14"/>
+      <c r="J36" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="14"/>
+      <c r="J37" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="14"/>
+      <c r="J38" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="14"/>
+      <c r="J39" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="14"/>
+      <c r="J40" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="14"/>
+      <c r="J41" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="14"/>
+      <c r="J42" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="14"/>
+      <c r="J43" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="14"/>
+      <c r="J44" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="14"/>
+      <c r="J45" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="14"/>
+      <c r="J46" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="14"/>
+      <c r="J47" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="14"/>
+      <c r="J48" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="14"/>
+      <c r="J49" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="14"/>
+      <c r="J50" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="14"/>
+      <c r="J51" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="14"/>
+      <c r="J52" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="14"/>
+      <c r="J53" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="14"/>
+      <c r="J54" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="14"/>
+      <c r="J55" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="14"/>
+      <c r="J56" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="14"/>
+      <c r="J57" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="14"/>
+      <c r="J58" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="14"/>
+      <c r="J59" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="14"/>
+      <c r="J60" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
+      <c r="J61" s="3">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E61" xr:uid="{B6D74D92-B024-4C58-9EC3-7FD31A141FF0}">
+      <formula1>$J$2:$J$61</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F61" xr:uid="{2CB786ED-15BB-4144-A4D6-49C55419EDDB}">
+      <formula1>$N$2:$N$9</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38E75B2-EB9B-42DE-B2BF-6C362E2B0D28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3C60E4-D440-46CC-9403-D0EC795D2FCB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
